--- a/Doc/IntegrationTest-v0.1-210325.xlsx
+++ b/Doc/IntegrationTest-v0.1-210325.xlsx
@@ -72,55 +72,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/tech-assignment/jukes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Jukeboxs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tech-assignment/settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/tech-assignment/jukes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20  Jukes;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/tech-assignment/jukes?offset=5&amp;limit=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 Jukes;"id": "5ca94a8ac5f85b8a59f9e3c8", "id": "5ca94a8a13385f0c82aa9f2e"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/tech-assignment/settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/tech-assignment/settings?offset=2&amp;limit=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20  settings;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 settings; "id": "2321763c-8e06-4a31-873d-0b5dac2436da","id": "2f58dbd4-47cb-4eef-bb72-623f4aa4fe5d"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://localhost:8080/api/jukes?settingId=515ef38b-0529-418f-a93a-7f2347fc5805&amp;offset=err</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/tech-assignment/jukes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Jukeboxs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/tech-assignment/settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/tech-assignment/jukes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20  Jukes;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/tech-assignment/jukes?offset=5&amp;limit=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 Jukes;"id": "5ca94a8ac5f85b8a59f9e3c8", "id": "5ca94a8a13385f0c82aa9f2e"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/tech-assignment/settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/tech-assignment/settings?offset=2&amp;limit=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20  settings;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 settings; "id": "2321763c-8e06-4a31-873d-0b5dac2436da","id": "2f58dbd4-47cb-4eef-bb72-623f4aa4fe5d"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +511,7 @@
   <dimension ref="B1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -544,7 +544,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -604,18 +604,18 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.399999999999999" customHeight="1">
       <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="26.4" customHeight="1">
@@ -624,13 +624,13 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -644,18 +644,18 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1">
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="26.4" customHeight="1">
